--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H2">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I2">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J2">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>1544.689510036171</v>
+        <v>3189.511293013164</v>
       </c>
       <c r="R2">
-        <v>6178.758040144682</v>
+        <v>12758.04517205265</v>
       </c>
       <c r="S2">
-        <v>0.01589262549033084</v>
+        <v>0.02815689925932889</v>
       </c>
       <c r="T2">
-        <v>0.00876286725011889</v>
+        <v>0.01645570638147036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H3">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I3">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J3">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>1114.698348506728</v>
+        <v>1879.381536009372</v>
       </c>
       <c r="R3">
-        <v>6688.190091040367</v>
+        <v>11276.28921605623</v>
       </c>
       <c r="S3">
-        <v>0.01146863707716439</v>
+        <v>0.01659111748410426</v>
       </c>
       <c r="T3">
-        <v>0.009485356366208337</v>
+        <v>0.01454449344782397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H4">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I4">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J4">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>793.400126542557</v>
+        <v>1228.182944008067</v>
       </c>
       <c r="R4">
-        <v>4760.400759255343</v>
+        <v>7369.0976640484</v>
       </c>
       <c r="S4">
-        <v>0.008162942127331919</v>
+        <v>0.01084235804469948</v>
       </c>
       <c r="T4">
-        <v>0.006751317925008589</v>
+        <v>0.009504881494039214</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H5">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I5">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J5">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>1313.151128852365</v>
+        <v>2722.436265836702</v>
       </c>
       <c r="R5">
-        <v>5252.604515409458</v>
+        <v>10889.74506334681</v>
       </c>
       <c r="S5">
-        <v>0.01351042974491821</v>
+        <v>0.02403357650591369</v>
       </c>
       <c r="T5">
-        <v>0.007449373448006123</v>
+        <v>0.01404591729491973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H6">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I6">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J6">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>1142.564378700484</v>
+        <v>947.1298737299385</v>
       </c>
       <c r="R6">
-        <v>6855.386272202903</v>
+        <v>5682.779242379631</v>
       </c>
       <c r="S6">
-        <v>0.01175533830669578</v>
+        <v>0.008361230919148437</v>
       </c>
       <c r="T6">
-        <v>0.009722478119598737</v>
+        <v>0.007329817803762191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H7">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I7">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J7">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>747.4448483387018</v>
+        <v>1365.056776722111</v>
       </c>
       <c r="R7">
-        <v>4484.669090032211</v>
+        <v>8190.340660332666</v>
       </c>
       <c r="S7">
-        <v>0.007690128645365091</v>
+        <v>0.01205067567235921</v>
       </c>
       <c r="T7">
-        <v>0.006360268461935681</v>
+        <v>0.01056414515335721</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>109.339678</v>
       </c>
       <c r="I8">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J8">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>5998.275254196299</v>
+        <v>7346.013801805577</v>
       </c>
       <c r="R8">
-        <v>35989.6515251778</v>
+        <v>44076.08281083346</v>
       </c>
       <c r="S8">
-        <v>0.06171359459845663</v>
+        <v>0.06485036470263585</v>
       </c>
       <c r="T8">
-        <v>0.05104141263408125</v>
+        <v>0.05685064344883125</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>109.339678</v>
       </c>
       <c r="I9">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J9">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>4328.551127135461</v>
       </c>
       <c r="R9">
-        <v>38956.96014421915</v>
+        <v>38956.96014421916</v>
       </c>
       <c r="S9">
-        <v>0.0445345433709215</v>
+        <v>0.03821230490470149</v>
       </c>
       <c r="T9">
-        <v>0.05524972300161007</v>
+        <v>0.05024784667263976</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>109.339678</v>
       </c>
       <c r="I10">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J10">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>3080.898986363281</v>
+        <v>2828.724537702468</v>
       </c>
       <c r="R10">
-        <v>27728.09087726954</v>
+        <v>25458.52083932222</v>
       </c>
       <c r="S10">
-        <v>0.03169800367367356</v>
+        <v>0.0249718858230584</v>
       </c>
       <c r="T10">
-        <v>0.03932466328638692</v>
+        <v>0.03283715790222645</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>109.339678</v>
       </c>
       <c r="I11">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J11">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>5099.174863322944</v>
+        <v>6270.256646271078</v>
       </c>
       <c r="R11">
-        <v>30595.04917993767</v>
+        <v>37621.53987762648</v>
       </c>
       <c r="S11">
-        <v>0.05246314931639749</v>
+        <v>0.05535361643206559</v>
       </c>
       <c r="T11">
-        <v>0.04339065435687051</v>
+        <v>0.04852538186658528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>109.339678</v>
       </c>
       <c r="I12">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J12">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>4436.759358147517</v>
+        <v>2181.409151854596</v>
       </c>
       <c r="R12">
-        <v>39930.83422332766</v>
+        <v>19632.68236669137</v>
       </c>
       <c r="S12">
-        <v>0.04564784988285964</v>
+        <v>0.01925740719799184</v>
       </c>
       <c r="T12">
-        <v>0.05663089527249572</v>
+        <v>0.02532281804540474</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>109.339678</v>
       </c>
       <c r="I13">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J13">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>2902.447325845799</v>
+        <v>3143.969404972875</v>
       </c>
       <c r="R13">
-        <v>26122.0259326122</v>
+        <v>28295.72464475588</v>
       </c>
       <c r="S13">
-        <v>0.02986199365981285</v>
+        <v>0.02775485699146201</v>
       </c>
       <c r="T13">
-        <v>0.03704690231668041</v>
+        <v>0.03649666781436253</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H14">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I14">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J14">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>5777.708302540389</v>
+        <v>7584.616109833742</v>
       </c>
       <c r="R14">
-        <v>34666.24981524234</v>
+        <v>45507.69665900246</v>
       </c>
       <c r="S14">
-        <v>0.05944427902698671</v>
+        <v>0.06695673791564478</v>
       </c>
       <c r="T14">
-        <v>0.04916453164482774</v>
+        <v>0.05869718159941891</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H15">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I15">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J15">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>4169.382818456877</v>
+        <v>4469.144694914845</v>
       </c>
       <c r="R15">
-        <v>37524.4453661119</v>
+        <v>40222.3022542336</v>
       </c>
       <c r="S15">
-        <v>0.04289693121435362</v>
+        <v>0.03945346022938884</v>
       </c>
       <c r="T15">
-        <v>0.05321809516429579</v>
+        <v>0.05187992258659877</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H16">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I16">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J16">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>2967.609003996011</v>
+        <v>2920.602966151081</v>
       </c>
       <c r="R16">
-        <v>26708.4810359641</v>
+        <v>26285.42669535973</v>
       </c>
       <c r="S16">
-        <v>0.03053241327516877</v>
+        <v>0.02578298552337929</v>
       </c>
       <c r="T16">
-        <v>0.03787862742801155</v>
+        <v>0.03390372568659827</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H17">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I17">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J17">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>4911.66938751525</v>
+        <v>6473.917808378003</v>
       </c>
       <c r="R17">
-        <v>29470.01632509151</v>
+        <v>38843.50685026802</v>
       </c>
       <c r="S17">
-        <v>0.05053398861126123</v>
+        <v>0.05715153037488317</v>
       </c>
       <c r="T17">
-        <v>0.0417951049770459</v>
+        <v>0.05010151123738357</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H18">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I18">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J18">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>4273.612045730865</v>
+        <v>2252.262443507593</v>
       </c>
       <c r="R18">
-        <v>38462.50841157779</v>
+        <v>20270.36199156834</v>
       </c>
       <c r="S18">
-        <v>0.043969299521026</v>
+        <v>0.01988289769229906</v>
       </c>
       <c r="T18">
-        <v>0.05454847934283976</v>
+        <v>0.02614531620487264</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H19">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I19">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J19">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>2795.719319565028</v>
+        <v>3246.087148913417</v>
       </c>
       <c r="R19">
-        <v>25161.47387608525</v>
+        <v>29214.78434022075</v>
       </c>
       <c r="S19">
-        <v>0.0287639165238386</v>
+        <v>0.02865634902725519</v>
       </c>
       <c r="T19">
-        <v>0.03568462366723564</v>
+        <v>0.03768209836360869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H20">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I20">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J20">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>2468.623344232301</v>
+        <v>4408.164857146584</v>
       </c>
       <c r="R20">
-        <v>9874.493376929206</v>
+        <v>17632.65942858634</v>
       </c>
       <c r="S20">
-        <v>0.02539857106018242</v>
+        <v>0.03891513225649458</v>
       </c>
       <c r="T20">
-        <v>0.01400425037879986</v>
+        <v>0.0227431289330196</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H21">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I21">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J21">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>1781.439148140824</v>
+        <v>2597.458632096616</v>
       </c>
       <c r="R21">
-        <v>10688.63488884494</v>
+        <v>15584.75179257969</v>
       </c>
       <c r="S21">
-        <v>0.01832843754765523</v>
+        <v>0.02293027812581468</v>
       </c>
       <c r="T21">
-        <v>0.01515888597795687</v>
+        <v>0.02010167671208548</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H22">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I22">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J22">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>1267.961011565331</v>
+        <v>1697.449042987554</v>
       </c>
       <c r="R22">
-        <v>7607.766069391986</v>
+        <v>10184.69425792532</v>
       </c>
       <c r="S22">
-        <v>0.01304548866437048</v>
+        <v>0.01498502350687477</v>
       </c>
       <c r="T22">
-        <v>0.01078952172959336</v>
+        <v>0.01313652178161253</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H23">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I23">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J23">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>2098.593607406603</v>
+        <v>3762.629058304825</v>
       </c>
       <c r="R23">
-        <v>8394.374429626414</v>
+        <v>15050.5162332193</v>
       </c>
       <c r="S23">
-        <v>0.02159149916032936</v>
+        <v>0.03321636376613239</v>
       </c>
       <c r="T23">
-        <v>0.01190510913304614</v>
+        <v>0.01941260378713354</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H24">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I24">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J24">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>1825.972843877372</v>
+        <v>1309.01076715917</v>
       </c>
       <c r="R24">
-        <v>10955.83706326423</v>
+        <v>7854.064602955017</v>
       </c>
       <c r="S24">
-        <v>0.01878662499791165</v>
+        <v>0.01155590337021749</v>
       </c>
       <c r="T24">
-        <v>0.01553783870084494</v>
+        <v>0.0101304062859446</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H25">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I25">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J25">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>1194.518244052739</v>
+        <v>1886.619848105791</v>
       </c>
       <c r="R25">
-        <v>7167.109464316432</v>
+        <v>11319.71908863475</v>
       </c>
       <c r="S25">
-        <v>0.01228986859220223</v>
+        <v>0.0166550170617458</v>
       </c>
       <c r="T25">
-        <v>0.0101645716493221</v>
+        <v>0.01460051059008195</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H26">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I26">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J26">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>1569.057149860942</v>
+        <v>2754.270417288801</v>
       </c>
       <c r="R26">
-        <v>9414.342899165649</v>
+        <v>16525.6225037328</v>
       </c>
       <c r="S26">
-        <v>0.01614333333245847</v>
+        <v>0.02431460733261322</v>
       </c>
       <c r="T26">
-        <v>0.01335165360683977</v>
+        <v>0.02131523975852904</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H27">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I27">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J27">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>1132.282832439064</v>
+        <v>1622.921034569931</v>
       </c>
       <c r="R27">
-        <v>10190.54549195157</v>
+        <v>14606.28931112938</v>
       </c>
       <c r="S27">
-        <v>0.01164955603580405</v>
+        <v>0.01432709273559633</v>
       </c>
       <c r="T27">
-        <v>0.0144524832939045</v>
+        <v>0.01883962668146619</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H28">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I28">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J28">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>805.9160971598909</v>
+        <v>1060.585036055593</v>
       </c>
       <c r="R28">
-        <v>7253.244874439019</v>
+        <v>9545.265324500333</v>
       </c>
       <c r="S28">
-        <v>0.008291713399731259</v>
+        <v>0.009362809306110763</v>
       </c>
       <c r="T28">
-        <v>0.0102867310152553</v>
+        <v>0.01231176731191462</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H29">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I29">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J29">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>1333.866226310764</v>
+        <v>2350.932472436702</v>
       </c>
       <c r="R29">
-        <v>8003.197357864581</v>
+        <v>14105.59483462021</v>
       </c>
       <c r="S29">
-        <v>0.01372355819808827</v>
+        <v>0.02075395341502308</v>
       </c>
       <c r="T29">
-        <v>0.01135033214892282</v>
+        <v>0.01819381604346127</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H30">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I30">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J30">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>1160.588452196092</v>
+        <v>817.8844822588565</v>
       </c>
       <c r="R30">
-        <v>10445.29606976483</v>
+        <v>7360.960340329708</v>
       </c>
       <c r="S30">
-        <v>0.01194078000744844</v>
+        <v>0.007220256916217148</v>
       </c>
       <c r="T30">
-        <v>0.01481377685496719</v>
+        <v>0.00949438573171513</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H31">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I31">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J31">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>759.2358695988718</v>
+        <v>1178.781058490454</v>
       </c>
       <c r="R31">
-        <v>6833.122826389846</v>
+        <v>10609.02952641409</v>
       </c>
       <c r="S31">
-        <v>0.007811441235253801</v>
+        <v>0.01040623984791259</v>
       </c>
       <c r="T31">
-        <v>0.009690903550903459</v>
+        <v>0.01368384204042849</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H32">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I32">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J32">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>5198.410793180192</v>
+        <v>6601.103637517165</v>
       </c>
       <c r="R32">
-        <v>31190.46475908115</v>
+        <v>39606.62182510299</v>
       </c>
       <c r="S32">
-        <v>0.05348414379985783</v>
+        <v>0.05827432263027678</v>
       </c>
       <c r="T32">
-        <v>0.04423508743626729</v>
+        <v>0.05108579964456805</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H33">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I33">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J33">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>3751.34283515774</v>
+        <v>3889.621686184405</v>
       </c>
       <c r="R33">
-        <v>33762.08551641966</v>
+        <v>35006.59517565964</v>
       </c>
       <c r="S33">
-        <v>0.03859590317513183</v>
+        <v>0.0343374504472536</v>
       </c>
       <c r="T33">
-        <v>0.04788222350597491</v>
+        <v>0.04515254836121336</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H34">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I34">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J34">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>2670.063954168226</v>
+        <v>2541.882487448126</v>
       </c>
       <c r="R34">
-        <v>24030.57558751404</v>
+        <v>22876.94238703313</v>
       </c>
       <c r="S34">
-        <v>0.02747110418185844</v>
+        <v>0.02243965377545815</v>
       </c>
       <c r="T34">
-        <v>0.03408075578444279</v>
+        <v>0.02950736117877083</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H35">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I35">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J35">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>4419.204608402526</v>
+        <v>5634.431825555896</v>
       </c>
       <c r="R35">
-        <v>26515.22765041515</v>
+        <v>33806.59095333537</v>
       </c>
       <c r="S35">
-        <v>0.04546723684609014</v>
+        <v>0.0497405761325452</v>
       </c>
       <c r="T35">
-        <v>0.0376045507038222</v>
+        <v>0.0436047471994531</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H36">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I36">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J36">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>3845.121598579856</v>
+        <v>1960.207028699198</v>
       </c>
       <c r="R36">
-        <v>34606.09438721871</v>
+        <v>17641.86325829278</v>
       </c>
       <c r="S36">
-        <v>0.03956075129271834</v>
+        <v>0.01730464223638789</v>
       </c>
       <c r="T36">
-        <v>0.04907921773113826</v>
+        <v>0.02275500030650918</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H37">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I37">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J37">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>2515.408657640107</v>
+        <v>2825.160479593447</v>
       </c>
       <c r="R37">
-        <v>22638.67791876096</v>
+        <v>25426.44431634102</v>
       </c>
       <c r="S37">
-        <v>0.02587992440634491</v>
+        <v>0.02494042243700614</v>
       </c>
       <c r="T37">
-        <v>0.0321067321347406</v>
+        <v>0.03279578464818959</v>
       </c>
     </row>
   </sheetData>
